--- a/src/test/java/ApachePOI/resource/YeniCarpim.xlsx
+++ b/src/test/java/ApachePOI/resource/YeniCarpim.xlsx
@@ -62,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -78,7 +78,10 @@
       <c r="C1" t="n">
         <v>1.0</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -92,7 +95,10 @@
       <c r="C2" t="n">
         <v>2.0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -106,7 +112,10 @@
       <c r="C3" t="n">
         <v>3.0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -120,7 +129,10 @@
       <c r="C4" t="n">
         <v>4.0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -134,7 +146,10 @@
       <c r="C5" t="n">
         <v>5.0</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -148,7 +163,10 @@
       <c r="C6" t="n">
         <v>6.0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -162,7 +180,10 @@
       <c r="C7" t="n">
         <v>7.0</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -176,7 +197,10 @@
       <c r="C8" t="n">
         <v>8.0</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -190,7 +214,10 @@
       <c r="C9" t="n">
         <v>9.0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -204,7 +231,10 @@
       <c r="C10" t="n">
         <v>10.0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -219,7 +249,10 @@
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -233,7 +266,10 @@
       <c r="C13" t="n">
         <v>2.0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -247,7 +283,10 @@
       <c r="C14" t="n">
         <v>3.0</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -261,7 +300,10 @@
       <c r="C15" t="n">
         <v>4.0</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -275,7 +317,10 @@
       <c r="C16" t="n">
         <v>5.0</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -289,7 +334,10 @@
       <c r="C17" t="n">
         <v>6.0</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -303,7 +351,10 @@
       <c r="C18" t="n">
         <v>7.0</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -317,7 +368,10 @@
       <c r="C19" t="n">
         <v>8.0</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -331,7 +385,10 @@
       <c r="C20" t="n">
         <v>9.0</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -345,7 +402,10 @@
       <c r="C21" t="n">
         <v>10.0</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -360,7 +420,10 @@
       <c r="C23" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -374,7 +437,10 @@
       <c r="C24" t="n">
         <v>2.0</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -388,7 +454,10 @@
       <c r="C25" t="n">
         <v>3.0</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -402,7 +471,10 @@
       <c r="C26" t="n">
         <v>4.0</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -416,7 +488,10 @@
       <c r="C27" t="n">
         <v>5.0</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -430,7 +505,10 @@
       <c r="C28" t="n">
         <v>6.0</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -444,7 +522,10 @@
       <c r="C29" t="n">
         <v>7.0</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -458,7 +539,10 @@
       <c r="C30" t="n">
         <v>8.0</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -472,7 +556,10 @@
       <c r="C31" t="n">
         <v>9.0</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
         <v>27.0</v>
       </c>
     </row>
@@ -486,7 +573,10 @@
       <c r="C32" t="n">
         <v>10.0</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
         <v>30.0</v>
       </c>
     </row>
@@ -501,7 +591,10 @@
       <c r="C34" t="n">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
         <v>4.0</v>
       </c>
     </row>
@@ -515,7 +608,10 @@
       <c r="C35" t="n">
         <v>2.0</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -529,7 +625,10 @@
       <c r="C36" t="n">
         <v>3.0</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -543,7 +642,10 @@
       <c r="C37" t="n">
         <v>4.0</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -557,7 +659,10 @@
       <c r="C38" t="n">
         <v>5.0</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -571,7 +676,10 @@
       <c r="C39" t="n">
         <v>6.0</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -585,7 +693,10 @@
       <c r="C40" t="n">
         <v>7.0</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
         <v>28.0</v>
       </c>
     </row>
@@ -599,7 +710,10 @@
       <c r="C41" t="n">
         <v>8.0</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
         <v>32.0</v>
       </c>
     </row>
@@ -613,7 +727,10 @@
       <c r="C42" t="n">
         <v>9.0</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
         <v>36.0</v>
       </c>
     </row>
@@ -627,7 +744,10 @@
       <c r="C43" t="n">
         <v>10.0</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
         <v>40.0</v>
       </c>
     </row>
@@ -642,7 +762,10 @@
       <c r="C45" t="n">
         <v>1.0</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -656,7 +779,10 @@
       <c r="C46" t="n">
         <v>2.0</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -670,7 +796,10 @@
       <c r="C47" t="n">
         <v>3.0</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
         <v>15.0</v>
       </c>
     </row>
@@ -684,7 +813,10 @@
       <c r="C48" t="n">
         <v>4.0</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -698,7 +830,10 @@
       <c r="C49" t="n">
         <v>5.0</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
         <v>25.0</v>
       </c>
     </row>
@@ -712,7 +847,10 @@
       <c r="C50" t="n">
         <v>6.0</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
         <v>30.0</v>
       </c>
     </row>
@@ -726,7 +864,10 @@
       <c r="C51" t="n">
         <v>7.0</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
         <v>35.0</v>
       </c>
     </row>
@@ -740,7 +881,10 @@
       <c r="C52" t="n">
         <v>8.0</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
         <v>40.0</v>
       </c>
     </row>
@@ -754,7 +898,10 @@
       <c r="C53" t="n">
         <v>9.0</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
         <v>45.0</v>
       </c>
     </row>
@@ -768,7 +915,10 @@
       <c r="C54" t="n">
         <v>10.0</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -783,7 +933,10 @@
       <c r="C56" t="n">
         <v>1.0</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
         <v>6.0</v>
       </c>
     </row>
@@ -797,7 +950,10 @@
       <c r="C57" t="n">
         <v>2.0</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
         <v>12.0</v>
       </c>
     </row>
@@ -811,7 +967,10 @@
       <c r="C58" t="n">
         <v>3.0</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -825,7 +984,10 @@
       <c r="C59" t="n">
         <v>4.0</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -839,7 +1001,10 @@
       <c r="C60" t="n">
         <v>5.0</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
         <v>30.0</v>
       </c>
     </row>
@@ -853,7 +1018,10 @@
       <c r="C61" t="n">
         <v>6.0</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
         <v>36.0</v>
       </c>
     </row>
@@ -867,7 +1035,10 @@
       <c r="C62" t="n">
         <v>7.0</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
         <v>42.0</v>
       </c>
     </row>
@@ -881,7 +1052,10 @@
       <c r="C63" t="n">
         <v>8.0</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
         <v>48.0</v>
       </c>
     </row>
@@ -895,7 +1069,10 @@
       <c r="C64" t="n">
         <v>9.0</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
         <v>54.0</v>
       </c>
     </row>
@@ -909,7 +1086,10 @@
       <c r="C65" t="n">
         <v>10.0</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
         <v>60.0</v>
       </c>
     </row>
@@ -924,7 +1104,10 @@
       <c r="C67" t="n">
         <v>1.0</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
         <v>7.0</v>
       </c>
     </row>
@@ -938,7 +1121,10 @@
       <c r="C68" t="n">
         <v>2.0</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
         <v>14.0</v>
       </c>
     </row>
@@ -952,7 +1138,10 @@
       <c r="C69" t="n">
         <v>3.0</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
         <v>21.0</v>
       </c>
     </row>
@@ -966,7 +1155,10 @@
       <c r="C70" t="n">
         <v>4.0</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
         <v>28.0</v>
       </c>
     </row>
@@ -980,7 +1172,10 @@
       <c r="C71" t="n">
         <v>5.0</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
         <v>35.0</v>
       </c>
     </row>
@@ -994,7 +1189,10 @@
       <c r="C72" t="n">
         <v>6.0</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
         <v>42.0</v>
       </c>
     </row>
@@ -1008,7 +1206,10 @@
       <c r="C73" t="n">
         <v>7.0</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
         <v>49.0</v>
       </c>
     </row>
@@ -1022,7 +1223,10 @@
       <c r="C74" t="n">
         <v>8.0</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
         <v>56.0</v>
       </c>
     </row>
@@ -1036,7 +1240,10 @@
       <c r="C75" t="n">
         <v>9.0</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
         <v>63.0</v>
       </c>
     </row>
@@ -1050,7 +1257,10 @@
       <c r="C76" t="n">
         <v>10.0</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
         <v>70.0</v>
       </c>
     </row>
@@ -1065,7 +1275,10 @@
       <c r="C78" t="n">
         <v>1.0</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
         <v>8.0</v>
       </c>
     </row>
@@ -1079,7 +1292,10 @@
       <c r="C79" t="n">
         <v>2.0</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
         <v>16.0</v>
       </c>
     </row>
@@ -1093,7 +1309,10 @@
       <c r="C80" t="n">
         <v>3.0</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
         <v>24.0</v>
       </c>
     </row>
@@ -1107,7 +1326,10 @@
       <c r="C81" t="n">
         <v>4.0</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
         <v>32.0</v>
       </c>
     </row>
@@ -1121,7 +1343,10 @@
       <c r="C82" t="n">
         <v>5.0</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
         <v>40.0</v>
       </c>
     </row>
@@ -1135,7 +1360,10 @@
       <c r="C83" t="n">
         <v>6.0</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
         <v>48.0</v>
       </c>
     </row>
@@ -1149,7 +1377,10 @@
       <c r="C84" t="n">
         <v>7.0</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
         <v>56.0</v>
       </c>
     </row>
@@ -1163,7 +1394,10 @@
       <c r="C85" t="n">
         <v>8.0</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
         <v>64.0</v>
       </c>
     </row>
@@ -1177,7 +1411,10 @@
       <c r="C86" t="n">
         <v>9.0</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
         <v>72.0</v>
       </c>
     </row>
@@ -1191,7 +1428,10 @@
       <c r="C87" t="n">
         <v>10.0</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
         <v>80.0</v>
       </c>
     </row>
@@ -1206,7 +1446,10 @@
       <c r="C89" t="n">
         <v>1.0</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
         <v>9.0</v>
       </c>
     </row>
@@ -1220,7 +1463,10 @@
       <c r="C90" t="n">
         <v>2.0</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
         <v>18.0</v>
       </c>
     </row>
@@ -1234,7 +1480,10 @@
       <c r="C91" t="n">
         <v>3.0</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
         <v>27.0</v>
       </c>
     </row>
@@ -1248,7 +1497,10 @@
       <c r="C92" t="n">
         <v>4.0</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
         <v>36.0</v>
       </c>
     </row>
@@ -1262,7 +1514,10 @@
       <c r="C93" t="n">
         <v>5.0</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
         <v>45.0</v>
       </c>
     </row>
@@ -1276,7 +1531,10 @@
       <c r="C94" t="n">
         <v>6.0</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
         <v>54.0</v>
       </c>
     </row>
@@ -1290,7 +1548,10 @@
       <c r="C95" t="n">
         <v>7.0</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
         <v>63.0</v>
       </c>
     </row>
@@ -1304,7 +1565,10 @@
       <c r="C96" t="n">
         <v>8.0</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
         <v>72.0</v>
       </c>
     </row>
@@ -1318,7 +1582,10 @@
       <c r="C97" t="n">
         <v>9.0</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="n">
         <v>81.0</v>
       </c>
     </row>
@@ -1332,7 +1599,10 @@
       <c r="C98" t="n">
         <v>10.0</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
         <v>90.0</v>
       </c>
     </row>
@@ -1347,7 +1617,10 @@
       <c r="C100" t="n">
         <v>1.0</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -1361,7 +1634,10 @@
       <c r="C101" t="n">
         <v>2.0</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" t="n">
         <v>20.0</v>
       </c>
     </row>
@@ -1375,7 +1651,10 @@
       <c r="C102" t="n">
         <v>3.0</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
         <v>30.0</v>
       </c>
     </row>
@@ -1389,7 +1668,10 @@
       <c r="C103" t="n">
         <v>4.0</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
         <v>40.0</v>
       </c>
     </row>
@@ -1403,7 +1685,10 @@
       <c r="C104" t="n">
         <v>5.0</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
         <v>50.0</v>
       </c>
     </row>
@@ -1417,7 +1702,10 @@
       <c r="C105" t="n">
         <v>6.0</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
         <v>60.0</v>
       </c>
     </row>
@@ -1431,7 +1719,10 @@
       <c r="C106" t="n">
         <v>7.0</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
         <v>70.0</v>
       </c>
     </row>
@@ -1445,7 +1736,10 @@
       <c r="C107" t="n">
         <v>8.0</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
         <v>80.0</v>
       </c>
     </row>
@@ -1459,7 +1753,10 @@
       <c r="C108" t="n">
         <v>9.0</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
         <v>90.0</v>
       </c>
     </row>
@@ -1473,7 +1770,10 @@
       <c r="C109" t="n">
         <v>10.0</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
         <v>100.0</v>
       </c>
     </row>
